--- a/przetwornice_porówniane.xlsx
+++ b/przetwornice_porówniane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\inż\iron_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA025D-F450-4D8A-ADF6-1137BD1C1B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB35470-1DBB-4D25-A861-7E7F054D862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1560" windowWidth="29040" windowHeight="15720" xr2:uid="{E0EB421A-84A8-4625-8473-E424093EE0DA}"/>
+    <workbookView xWindow="28680" yWindow="1560" windowWidth="29040" windowHeight="16440" xr2:uid="{E0EB421A-84A8-4625-8473-E424093EE0DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>TPS62840</t>
   </si>
@@ -107,12 +107,6 @@
     <t>NCP1529</t>
   </si>
   <si>
-    <t>MAX16929</t>
-  </si>
-  <si>
-    <t>MCP16331</t>
-  </si>
-  <si>
     <t>RF friendly</t>
   </si>
   <si>
@@ -147,6 +141,21 @@
   </si>
   <si>
     <t>----</t>
+  </si>
+  <si>
+    <t>WDFN-10</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>DFN6D</t>
+  </si>
+  <si>
+    <t>TSOP/UDFN</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +200,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,32 +233,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +617,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,394 +627,435 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>16</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2.7</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="G9" s="12">
+        <v>16</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10">
+        <v>25</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="13">
+        <v>300</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10">
+        <v>750</v>
+      </c>
+      <c r="E12" s="10">
+        <v>600</v>
+      </c>
+      <c r="F12" s="11">
+        <v>800</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>60</v>
+      </c>
+      <c r="E13" s="10">
+        <v>275</v>
+      </c>
+      <c r="F13" s="11">
+        <v>60</v>
+      </c>
+      <c r="G13" s="15">
+        <v>2500000</v>
+      </c>
+      <c r="H13" s="13">
+        <v>28000</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10">
+        <v>95</v>
+      </c>
+      <c r="E14" s="10">
+        <v>96</v>
+      </c>
+      <c r="F14" s="11">
+        <v>88</v>
+      </c>
+      <c r="G14" s="12">
+        <v>70</v>
+      </c>
+      <c r="H14" s="13">
+        <v>93</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10">
+        <v>94</v>
+      </c>
+      <c r="E15" s="10">
+        <v>96</v>
+      </c>
+      <c r="F15" s="11">
+        <v>88</v>
+      </c>
+      <c r="G15" s="12">
+        <v>70</v>
+      </c>
+      <c r="H15" s="13">
+        <v>95</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10">
+        <v>91</v>
+      </c>
+      <c r="E16" s="10">
+        <v>89</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="C17" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>750</v>
-      </c>
-      <c r="E12" s="3">
-        <v>600</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>60</v>
-      </c>
-      <c r="E13" s="3">
-        <v>275</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3">
-        <v>95</v>
-      </c>
-      <c r="E14" s="3">
-        <v>96</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>94</v>
-      </c>
-      <c r="E15" s="3">
-        <v>96</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3">
-        <v>91</v>
-      </c>
-      <c r="E16" s="3">
-        <v>89</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="E17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="F17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="16" t="str">
         <f>HYPERLINK("https://www.mouser.pl/ProductDetail/Texas-Instruments/TPS62840DLCR?qs=%252B6g0mu59x7L1%2Fxo1joT%252Bvg%3D%3D","Link")</f>
         <v>Link</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f>HYPERLINK("https://www.mouser.pl/ProductDetail/Texas-Instruments/TPS62840DLCR?qs=%252B6g0mu59x7L1%2Fxo1joT%252Bvg%3D%3D","Link")</f>
+      <c r="E18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="18" t="str">
+        <f>HYPERLINK("https://www.mouser.pl/c/?q=RT6150","Link")</f>
         <v>Link</v>
       </c>
-      <c r="G18" s="3" t="str">
-        <f>HYPERLINK("https://www.mouser.pl/ProductDetail/Texas-Instruments/TPS62840DLCR?qs=%252B6g0mu59x7L1%2Fxo1joT%252Bvg%3D%3D","Link")</f>
+      <c r="G18" s="12" t="str">
+        <f t="shared" ref="G18:K18" si="0">HYPERLINK("https://www.mouser.pl/ProductDetail/Texas-Instruments/TPS62840DLCR?qs=%252B6g0mu59x7L1%2Fxo1joT%252Bvg%3D%3D","Link")</f>
         <v>Link</v>
       </c>
-      <c r="H18" s="3" t="str">
-        <f>HYPERLINK("https://www.mouser.pl/ProductDetail/Texas-Instruments/TPS62840DLCR?qs=%252B6g0mu59x7L1%2Fxo1joT%252Bvg%3D%3D","Link")</f>
+      <c r="H18" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>Link</v>
       </c>
-      <c r="I18" s="3" t="str">
-        <f>HYPERLINK("https://www.mouser.pl/ProductDetail/Texas-Instruments/TPS62840DLCR?qs=%252B6g0mu59x7L1%2Fxo1joT%252Bvg%3D%3D","Link")</f>
-        <v>Link</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f>HYPERLINK("https://www.mouser.pl/ProductDetail/Texas-Instruments/TPS62840DLCR?qs=%252B6g0mu59x7L1%2Fxo1joT%252Bvg%3D%3D","Link")</f>
-        <v>Link</v>
-      </c>
-      <c r="K18" s="3" t="str">
-        <f>HYPERLINK("https://www.mouser.pl/ProductDetail/Texas-Instruments/TPS62840DLCR?qs=%252B6g0mu59x7L1%2Fxo1joT%252Bvg%3D%3D","Link")</f>
-        <v>Link</v>
-      </c>
+      <c r="I18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
